--- a/src/assets/with_examples/faang_update_sample.xlsx
+++ b/src/assets/with_examples/faang_update_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yroochun/Documents/JiraTasks/abc-200/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/with_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CD5E95-B2C0-9740-BF81-80325427F56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52008ECA-4D24-D14F-9C53-1BF6C8B168DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="12" xr2:uid="{98093BAA-FAF6-D542-BB9A-98E15CDA65F3}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="21100" activeTab="3" xr2:uid="{98093BAA-FAF6-D542-BB9A-98E15CDA65F3}"/>
   </bookViews>
   <sheets>
     <sheet name="submission" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="203">
   <si>
     <t>Sample Description</t>
   </si>
@@ -647,6 +647,12 @@
   </si>
   <si>
     <t>Macleod horse samples - FAANG example file for updating Biosample</t>
+  </si>
+  <si>
+    <t>Collection Date</t>
+  </si>
+  <si>
+    <t>Geographic Location</t>
   </si>
 </sst>
 </file>
@@ -1438,7 +1444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF1768E-5FFC-3B47-B3F8-93EDEED05C14}">
   <dimension ref="A1:AC1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1822,50 +1828,53 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED62F57-0BB2-304A-8E43-F2D039525E7F}">
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AK12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.83203125" customWidth="1"/>
-    <col min="20" max="20" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.83203125" customWidth="1"/>
+    <col min="21" max="21" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>189</v>
       </c>
@@ -1900,79 +1909,85 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>181</v>
       </c>
@@ -2000,31 +2015,33 @@
       <c r="K2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>35</v>
       </c>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>182</v>
       </c>
@@ -2052,30 +2069,32 @@
       <c r="K3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>35</v>
       </c>
-      <c r="AG3" s="2"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AI3" s="2"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2086,14 +2105,16 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="5"/>
       <c r="Q4" s="2"/>
-      <c r="AG4" s="2"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="AI4" s="2"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2104,13 +2125,15 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="5"/>
       <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2121,13 +2144,15 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="5"/>
       <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2138,13 +2163,15 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="5"/>
       <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2155,13 +2182,15 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="5"/>
       <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2172,13 +2201,15 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="5"/>
       <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2189,13 +2220,15 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="5"/>
       <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2206,13 +2239,15 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="5"/>
       <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2223,11 +2258,13 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="5"/>
       <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/with_examples/faang_update_sample.xlsx
+++ b/src/assets/with_examples/faang_update_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/with_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52008ECA-4D24-D14F-9C53-1BF6C8B168DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12661414-2F38-6247-B070-DAF85D6EAC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="21100" activeTab="3" xr2:uid="{98093BAA-FAF6-D542-BB9A-98E15CDA65F3}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="21100" activeTab="5" xr2:uid="{98093BAA-FAF6-D542-BB9A-98E15CDA65F3}"/>
   </bookViews>
   <sheets>
     <sheet name="submission" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="202">
   <si>
     <t>Sample Description</t>
   </si>
@@ -647,9 +647,6 @@
   </si>
   <si>
     <t>Macleod horse samples - FAANG example file for updating Biosample</t>
-  </si>
-  <si>
-    <t>Collection Date</t>
   </si>
   <si>
     <t>Geographic Location</t>
@@ -1828,10 +1825,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED62F57-0BB2-304A-8E43-F2D039525E7F}">
-  <dimension ref="A1:AK12"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1847,34 +1844,32 @@
     <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.83203125" customWidth="1"/>
-    <col min="21" max="21" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.83203125" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>189</v>
       </c>
@@ -1909,85 +1904,79 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>201</v>
+        <v>2</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>202</v>
+        <v>15</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>181</v>
       </c>
@@ -2015,33 +2004,31 @@
       <c r="K2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="O2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="Q2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T2" t="s">
+      <c r="R2" t="s">
         <v>35</v>
       </c>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>182</v>
       </c>
@@ -2069,32 +2056,30 @@
       <c r="K3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="O3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="Q3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T3" t="s">
+      <c r="R3" t="s">
         <v>35</v>
       </c>
-      <c r="AI3" s="2"/>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AG3" s="2"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2105,16 +2090,14 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="5"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="AI4" s="2"/>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AG4" s="2"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2125,15 +2108,13 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="5"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2144,15 +2125,13 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="5"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2163,15 +2142,13 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="5"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2182,15 +2159,13 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="5"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2201,15 +2176,13 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="5"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2220,15 +2193,13 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="5"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2239,15 +2210,13 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="5"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2258,13 +2227,11 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="5"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2409,55 +2376,56 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD35D17F-18C2-864A-BEE4-81B125D47F43}">
-  <dimension ref="A1:AL45"/>
+  <dimension ref="A1:AM45"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="79" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.6640625" customWidth="1"/>
-    <col min="34" max="34" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.6640625" customWidth="1"/>
-    <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.6640625" customWidth="1"/>
-    <col min="38" max="38" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="79" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.6640625" customWidth="1"/>
+    <col min="35" max="35" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.6640625" customWidth="1"/>
+    <col min="37" max="37" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.6640625" customWidth="1"/>
+    <col min="39" max="39" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>189</v>
       </c>
@@ -2489,91 +2457,94 @@
         <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="W1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="Y1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AA1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AC1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AF1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AH1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AJ1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AL1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>183</v>
       </c>
@@ -2596,39 +2567,40 @@
       <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2">
         <v>23.5</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T2" s="2"/>
-      <c r="AL2" s="2" t="s">
+      <c r="U2" s="2"/>
+      <c r="AM2" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>184</v>
       </c>
@@ -2651,38 +2623,39 @@
       <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2">
         <v>23.5</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="6"/>
@@ -2695,11 +2668,12 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="Q4" s="2"/>
+      <c r="P4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="6"/>
@@ -2712,11 +2686,12 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="Q5" s="2"/>
+      <c r="P5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="6"/>
@@ -2729,11 +2704,12 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="P6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="6"/>
@@ -2746,11 +2722,12 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="P7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="6"/>
@@ -2763,11 +2740,12 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="P8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="6"/>
@@ -2780,10 +2758,11 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="R9" s="2"/>
+      <c r="P9" s="2"/>
       <c r="S9" s="2"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="6"/>
@@ -2796,11 +2775,12 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="Q10" s="2"/>
+      <c r="P10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="6"/>
@@ -2813,11 +2793,12 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="Q11" s="2"/>
+      <c r="P11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="6"/>
@@ -2830,11 +2811,12 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="Q12" s="2"/>
+      <c r="P12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="6"/>
@@ -2847,11 +2829,12 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="Q13" s="2"/>
+      <c r="P13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="6"/>
@@ -2864,11 +2847,12 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="Q14" s="2"/>
+      <c r="P14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="6"/>
@@ -2881,11 +2865,12 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="Q15" s="2"/>
+      <c r="P15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="6"/>
@@ -2898,11 +2883,12 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="Q16" s="2"/>
+      <c r="P16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="6"/>
@@ -2915,11 +2901,12 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="Q17" s="2"/>
+      <c r="P17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="6"/>
@@ -2932,11 +2919,12 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="Q18" s="2"/>
+      <c r="P18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="6"/>
@@ -2949,11 +2937,12 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="Q19" s="2"/>
+      <c r="P19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="6"/>
@@ -2966,11 +2955,12 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="Q20" s="2"/>
+      <c r="P20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="6"/>
@@ -2983,11 +2973,12 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="Q21" s="2"/>
+      <c r="P21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="6"/>
@@ -3000,11 +2991,12 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="Q22" s="2"/>
+      <c r="P22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="6"/>
@@ -3017,11 +3009,12 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="Q23" s="2"/>
+      <c r="P23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="6"/>
@@ -3034,11 +3027,12 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="Q24" s="2"/>
+      <c r="P24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="6"/>
@@ -3051,11 +3045,12 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="Q25" s="2"/>
+      <c r="P25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="2"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="6"/>
@@ -3068,11 +3063,12 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="Q26" s="2"/>
+      <c r="P26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="2"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="6"/>
@@ -3085,11 +3081,12 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="Q27" s="2"/>
+      <c r="P27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="2"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="6"/>
@@ -3102,11 +3099,12 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="Q28" s="2"/>
+      <c r="P28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="2"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="6"/>
@@ -3119,11 +3117,12 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="Q29" s="2"/>
+      <c r="P29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="2"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="6"/>
@@ -3136,11 +3135,12 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="Q30" s="2"/>
+      <c r="P30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="2"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="6"/>
@@ -3153,11 +3153,12 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="Q31" s="2"/>
+      <c r="P31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="2"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="6"/>
@@ -3170,11 +3171,12 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-      <c r="Q32" s="2"/>
+      <c r="P32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
-    </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="T32" s="2"/>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="6"/>
@@ -3187,12 +3189,13 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="Q33" s="2"/>
+      <c r="P33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
-      <c r="AL33" s="2"/>
-    </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="T33" s="2"/>
+      <c r="AM33" s="2"/>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="6"/>
@@ -3205,12 +3208,13 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="Q34" s="2"/>
+      <c r="P34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
-      <c r="AL34" s="2"/>
-    </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="T34" s="2"/>
+      <c r="AM34" s="2"/>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="6"/>
@@ -3223,12 +3227,13 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="Q35" s="2"/>
+      <c r="P35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
-      <c r="AL35" s="2"/>
-    </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="T35" s="2"/>
+      <c r="AM35" s="2"/>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="6"/>
@@ -3241,12 +3246,13 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="Q36" s="2"/>
+      <c r="P36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
-      <c r="AL36" s="2"/>
-    </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="T36" s="2"/>
+      <c r="AM36" s="2"/>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="6"/>
@@ -3259,12 +3265,13 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-      <c r="Q37" s="2"/>
+      <c r="P37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
-      <c r="AL37" s="2"/>
-    </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="T37" s="2"/>
+      <c r="AM37" s="2"/>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="6"/>
@@ -3277,12 +3284,13 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="Q38" s="2"/>
+      <c r="P38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
-      <c r="AL38" s="2"/>
-    </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="T38" s="2"/>
+      <c r="AM38" s="2"/>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="6"/>
@@ -3295,11 +3303,12 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="Q39" s="2"/>
+      <c r="P39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
-    </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="T39" s="2"/>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="6"/>
@@ -3312,11 +3321,12 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-      <c r="Q40" s="2"/>
+      <c r="P40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
-    </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="T40" s="2"/>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="6"/>
@@ -3329,11 +3339,12 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-      <c r="Q41" s="2"/>
+      <c r="P41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
-    </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="T41" s="2"/>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="6"/>
@@ -3346,11 +3357,12 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
-      <c r="Q42" s="2"/>
+      <c r="P42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
-    </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="T42" s="2"/>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="6"/>
@@ -3363,11 +3375,12 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
-      <c r="Q43" s="2"/>
+      <c r="P43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
-    </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="T43" s="2"/>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="6"/>
@@ -3380,11 +3393,12 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
-      <c r="Q44" s="2"/>
+      <c r="P44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
-    </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="T44" s="2"/>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="6"/>
@@ -3397,9 +3411,10 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
-      <c r="Q45" s="2"/>
+      <c r="P45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/with_examples/faang_update_sample.xlsx
+++ b/src/assets/with_examples/faang_update_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/with_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12661414-2F38-6247-B070-DAF85D6EAC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E024807-48C1-FE45-AB83-96BD523F59AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="21100" activeTab="5" xr2:uid="{98093BAA-FAF6-D542-BB9A-98E15CDA65F3}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="21100" activeTab="7" xr2:uid="{98093BAA-FAF6-D542-BB9A-98E15CDA65F3}"/>
   </bookViews>
   <sheets>
     <sheet name="submission" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="cell line" sheetId="6" r:id="rId13"/>
     <sheet name="faang_field_values" sheetId="10" state="hidden" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="202">
   <si>
     <t>Sample Description</t>
   </si>
@@ -2378,8 +2378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD35D17F-18C2-864A-BEE4-81B125D47F43}">
   <dimension ref="A1:AM45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3423,13 +3423,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65FEE83-5A35-9347-A22B-DDB308621828}">
-  <dimension ref="A1:BG1"/>
+  <dimension ref="A1:BH1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
@@ -3439,47 +3441,59 @@
     <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="29" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="29" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>189</v>
       </c>
@@ -3511,150 +3525,153 @@
         <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="W1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="Y1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AA1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AC1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AF1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AH1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AJ1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AL1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AR1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AS1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AT1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AU1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AV1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AW1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AX1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AZ1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="BA1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BB1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="BC1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BD1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="BE1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3665,13 +3682,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872DA841-BC85-694E-B3BF-1A182E20843F}">
-  <dimension ref="A1:BW1"/>
+  <dimension ref="A1:BX1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
@@ -3681,73 +3700,74 @@
     <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.1640625" customWidth="1"/>
-    <col min="42" max="42" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="5.6640625" customWidth="1"/>
-    <col min="44" max="44" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="11" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="20" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="21" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>189</v>
       </c>
@@ -3779,198 +3799,201 @@
         <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="W1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="Y1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AA1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AC1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AF1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AH1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AJ1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AL1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AR1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AX1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AY1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="BB1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BD1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="BE1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="BF1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="BG1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BH1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BH1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="BI1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BJ1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="BK1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BL1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BM1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="BN1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BO1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="BO1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="BP1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="BQ1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="BR1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BS1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="BS1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="BT1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BU1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>165</v>
       </c>
     </row>

--- a/src/assets/with_examples/faang_update_sample.xlsx
+++ b/src/assets/with_examples/faang_update_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/with_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E024807-48C1-FE45-AB83-96BD523F59AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7489C74-0524-494F-88C0-8ECE1BDBCBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="21100" activeTab="7" xr2:uid="{98093BAA-FAF6-D542-BB9A-98E15CDA65F3}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="21100" activeTab="4" xr2:uid="{98093BAA-FAF6-D542-BB9A-98E15CDA65F3}"/>
   </bookViews>
   <sheets>
     <sheet name="submission" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="201">
   <si>
     <t>Sample Description</t>
   </si>
@@ -427,9 +427,6 @@
     <t>Diet</t>
   </si>
   <si>
-    <t xml:space="preserve">Organ Model </t>
-  </si>
-  <si>
     <t>Organ Part Model</t>
   </si>
   <si>
@@ -442,24 +439,15 @@
     <t>Freezing Protocol</t>
   </si>
   <si>
-    <t>Input Aggregate Cell Count</t>
-  </si>
-  <si>
     <t>Organoid Passage Protocol</t>
   </si>
   <si>
-    <t>Organoid Age</t>
-  </si>
-  <si>
     <t>Type Of Organoid Culture</t>
   </si>
   <si>
     <t>Organoid Morphology</t>
   </si>
   <si>
-    <t>Embeddded In Matrigel</t>
-  </si>
-  <si>
     <t>Growth Environment</t>
   </si>
   <si>
@@ -650,6 +638,15 @@
   </si>
   <si>
     <t>Geographic Location</t>
+  </si>
+  <si>
+    <t>Sample Name</t>
+  </si>
+  <si>
+    <t>Organ Model</t>
+  </si>
+  <si>
+    <t>Organoid Passage</t>
   </si>
 </sst>
 </file>
@@ -659,7 +656,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -711,6 +708,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -729,11 +742,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -743,8 +757,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Accent 4" xfId="2" xr:uid="{859B1B9F-1772-8940-B3D5-ED0BA33C9525}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1080,10 +1097,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1123,7 +1140,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1188,7 +1205,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>61</v>
@@ -1213,13 +1230,13 @@
         <v>52</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1252,7 +1269,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1293,7 +1310,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>66</v>
@@ -1309,7 +1326,7 @@
       </c>
       <c r="F2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K2" t="s">
         <v>72</v>
@@ -1318,12 +1335,12 @@
         <v>74</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>67</v>
@@ -1339,7 +1356,7 @@
       </c>
       <c r="F3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>88</v>
@@ -1348,7 +1365,7 @@
         <v>74</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1384,7 +1401,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1478,7 +1495,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1709,13 +1726,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
         <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>98</v>
@@ -1726,16 +1743,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="E3" t="s">
         <v>96</v>
@@ -1871,7 +1888,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1978,10 +1995,10 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -1993,7 +2010,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>10</v>
@@ -2030,10 +2047,10 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -2045,7 +2062,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>10</v>
@@ -2240,9 +2257,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C48961-30A0-5845-A7E7-FE39AD3383A7}">
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2262,110 +2279,100 @@
     <col min="14" max="14" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="20.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="18.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="21" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD1" s="1" t="s">
+      <c r="Z1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2427,7 +2434,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2457,7 +2464,7 @@
         <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>40</v>
@@ -2546,10 +2553,10 @@
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>36</v>
@@ -2597,15 +2604,15 @@
       </c>
       <c r="U2" s="2"/>
       <c r="AM2" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>36</v>
@@ -2652,7 +2659,7 @@
         <v>52</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.2">
@@ -3495,7 +3502,7 @@
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3525,7 +3532,7 @@
         <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>40</v>
@@ -3612,64 +3619,64 @@
         <v>60</v>
       </c>
       <c r="AN1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AR1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AT1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AV1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AX1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="BH1" s="1" t="s">
         <v>19</v>
@@ -3684,7 +3691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872DA841-BC85-694E-B3BF-1A182E20843F}">
   <dimension ref="A1:BX1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3769,7 +3776,7 @@
   <sheetData>
     <row r="1" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3799,7 +3806,7 @@
         <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>40</v>
@@ -3886,46 +3893,46 @@
         <v>60</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AQ1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="AW1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AY1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="BB1" s="1" t="s">
         <v>19</v>
@@ -3934,67 +3941,67 @@
         <v>126</v>
       </c>
       <c r="BD1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BE1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BS1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BI1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BX1" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -4034,7 +4041,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -4058,13 +4065,13 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>71</v>
@@ -4073,22 +4080,22 @@
         <v>2</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>60</v>
